--- a/example.xlsx
+++ b/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cny/go/src/github.com/codingeasygo/xlsx2json/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1035A49-A970-6E49-8B00-F443C19F85D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7C9EDD-D44B-7941-9A91-17ECDFF1A3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2200" windowWidth="28580" windowHeight="25300" activeTab="2" xr2:uid="{1D59D8A5-CF87-F042-9C22-F01DDD5C7962}"/>
+    <workbookView xWindow="9540" yWindow="2200" windowWidth="28580" windowHeight="25300" activeTab="1" xr2:uid="{1D59D8A5-CF87-F042-9C22-F01DDD5C7962}"/>
   </bookViews>
   <sheets>
     <sheet name="user0" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>id,int64</t>
   </si>
@@ -119,6 +119,18 @@
   </si>
   <si>
     <t>product02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_admin,bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test,bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>products_3,ref,product,test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BE85DC-DCF0-C940-A3CB-494391A7E20C}">
-  <dimension ref="A2:I4"/>
+  <dimension ref="A2:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -498,14 +510,14 @@
     <col min="2" max="2" width="14.83203125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="26.83203125" customWidth="1"/>
-    <col min="9" max="9" width="33" customWidth="1"/>
+    <col min="5" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="26.83203125" customWidth="1"/>
+    <col min="10" max="10" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -522,19 +534,22 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -550,18 +565,21 @@
       <c r="E3" s="1">
         <v>100.51</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
         <v>44719.461168981485</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -577,14 +595,17 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>44719.461168981485</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -594,18 +615,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB5166C-9824-0047-80FD-31E10BA46393}">
-  <dimension ref="A2:C3"/>
+  <dimension ref="A2:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="3" width="32.1640625" customWidth="1"/>
+    <col min="4" max="4" width="42.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -615,8 +637,11 @@
       <c r="C2" t="s">
         <v>23</v>
       </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -625,6 +650,9 @@
       </c>
       <c r="C3" s="1">
         <v>100</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -635,10 +663,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC002A4A-8418-7F42-9C70-06C000837661}">
-  <dimension ref="A2:F4"/>
+  <dimension ref="A2:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -646,11 +674,11 @@
     <col min="2" max="2" width="11.83203125" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="34.1640625" customWidth="1"/>
+    <col min="5" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -667,10 +695,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -686,11 +717,14 @@
       <c r="E3" s="1">
         <v>100</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
         <v>44721.544502314813</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -706,7 +740,10 @@
       <c r="E4" s="1">
         <v>100</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
         <v>44721.544502314813</v>
       </c>
     </row>

--- a/example.xlsx
+++ b/example.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cny/go/src/github.com/codingeasygo/xlsx2json/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7C9EDD-D44B-7941-9A91-17ECDFF1A3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEE8FF9-6091-904B-A742-8A8FE0D40A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="2200" windowWidth="28580" windowHeight="25300" activeTab="1" xr2:uid="{1D59D8A5-CF87-F042-9C22-F01DDD5C7962}"/>
+    <workbookView xWindow="14680" yWindow="2200" windowWidth="28580" windowHeight="25300" activeTab="2" xr2:uid="{1D59D8A5-CF87-F042-9C22-F01DDD5C7962}"/>
   </bookViews>
   <sheets>
     <sheet name="user0" sheetId="1" r:id="rId1"/>
     <sheet name="user1" sheetId="3" r:id="rId2"/>
-    <sheet name="product" sheetId="2" r:id="rId3"/>
+    <sheet name="user2" sheetId="4" r:id="rId3"/>
+    <sheet name="product" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>id,int64</t>
   </si>
@@ -131,6 +132,10 @@
   </si>
   <si>
     <t>products_3,ref,product,test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a,xxx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB5166C-9824-0047-80FD-31E10BA46393}">
   <dimension ref="A2:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -662,6 +667,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233265DC-6DA8-8E45-B207-3BECE4A665D1}">
+  <dimension ref="A2:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="43.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC002A4A-8418-7F42-9C70-06C000837661}">
   <dimension ref="A2:G4"/>
   <sheetViews>
